--- a/MMK 67401.007.0881.xlsx
+++ b/MMK 67401.007.0881.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opilane\Documents\andmetarkus\Timber-AS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6626A2-1227-4C1E-8A8C-78A0EA45DE80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C239D457-6596-49B7-8EDA-0A9918999744}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
